--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb1-Vasn.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb1-Vasn.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H2">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I2">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J2">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.39808590523077</v>
+        <v>3.4088795</v>
       </c>
       <c r="N2">
-        <v>3.39808590523077</v>
+        <v>6.817759000000001</v>
       </c>
       <c r="O2">
-        <v>0.04699311904192303</v>
+        <v>0.04462917857418398</v>
       </c>
       <c r="P2">
-        <v>0.04699311904192303</v>
+        <v>0.03188023676415588</v>
       </c>
       <c r="Q2">
-        <v>158.2463788785655</v>
+        <v>160.3138197209283</v>
       </c>
       <c r="R2">
-        <v>158.2463788785655</v>
+        <v>641.255278883713</v>
       </c>
       <c r="S2">
-        <v>0.005565567658836577</v>
+        <v>0.00522561280062517</v>
       </c>
       <c r="T2">
-        <v>0.005565567658836577</v>
+        <v>0.002618539403184848</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H3">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I3">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J3">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.9570741144592</v>
+        <v>43.142411</v>
       </c>
       <c r="N3">
-        <v>40.9570741144592</v>
+        <v>129.427233</v>
       </c>
       <c r="O3">
-        <v>0.5664072990347006</v>
+        <v>0.5648220667934549</v>
       </c>
       <c r="P3">
-        <v>0.5664072990347006</v>
+        <v>0.6052092530360149</v>
       </c>
       <c r="Q3">
-        <v>1907.34102928279</v>
+        <v>2028.914398229739</v>
       </c>
       <c r="R3">
-        <v>1907.34102928279</v>
+        <v>12173.48638937843</v>
       </c>
       <c r="S3">
-        <v>0.0670816964165379</v>
+        <v>0.06613479155582712</v>
       </c>
       <c r="T3">
-        <v>0.0670816964165379</v>
+        <v>0.04970992806517307</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H4">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I4">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J4">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.21510460054611</v>
+        <v>5.580051</v>
       </c>
       <c r="N4">
-        <v>5.21510460054611</v>
+        <v>16.740153</v>
       </c>
       <c r="O4">
-        <v>0.07212119944710474</v>
+        <v>0.07305423747951603</v>
       </c>
       <c r="P4">
-        <v>0.07212119944710474</v>
+        <v>0.07827792697104638</v>
       </c>
       <c r="Q4">
-        <v>242.8636124940238</v>
+        <v>262.4203319734785</v>
       </c>
       <c r="R4">
-        <v>242.8636124940238</v>
+        <v>1574.521991840871</v>
       </c>
       <c r="S4">
-        <v>0.008541578497933276</v>
+        <v>0.008553891662565743</v>
       </c>
       <c r="T4">
-        <v>0.008541578497933276</v>
+        <v>0.006429495417166116</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H5">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I5">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J5">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.16383383159679</v>
+        <v>8.215490333333333</v>
       </c>
       <c r="N5">
-        <v>8.16383383159679</v>
+        <v>24.646471</v>
       </c>
       <c r="O5">
-        <v>0.1129000342505034</v>
+        <v>0.1075575083134548</v>
       </c>
       <c r="P5">
-        <v>0.1129000342505034</v>
+        <v>0.1152483287955619</v>
       </c>
       <c r="Q5">
-        <v>380.183779235205</v>
+        <v>386.3605727973161</v>
       </c>
       <c r="R5">
-        <v>380.183779235205</v>
+        <v>2318.163436783897</v>
       </c>
       <c r="S5">
-        <v>0.01337116565396699</v>
+        <v>0.01259386594606204</v>
       </c>
       <c r="T5">
-        <v>0.01337116565396699</v>
+        <v>0.009466124493833333</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H6">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I6">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J6">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.27065491007473</v>
+        <v>4.152783</v>
       </c>
       <c r="N6">
-        <v>3.27065491007473</v>
+        <v>12.458349</v>
       </c>
       <c r="O6">
-        <v>0.04523083871940958</v>
+        <v>0.05436839116396912</v>
       </c>
       <c r="P6">
-        <v>0.04523083871940958</v>
+        <v>0.05825596296532109</v>
       </c>
       <c r="Q6">
-        <v>152.3120105009756</v>
+        <v>195.2983392936405</v>
       </c>
       <c r="R6">
-        <v>152.3120105009756</v>
+        <v>1171.790035761843</v>
       </c>
       <c r="S6">
-        <v>0.005356854328699136</v>
+        <v>0.006365973336111938</v>
       </c>
       <c r="T6">
-        <v>0.005356854328699136</v>
+        <v>0.004784956135165316</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H7">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I7">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J7">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.3055332185448</v>
+        <v>11.8826895</v>
       </c>
       <c r="N7">
-        <v>11.3055332185448</v>
+        <v>23.765379</v>
       </c>
       <c r="O7">
-        <v>0.1563475095063586</v>
+        <v>0.1555686176754212</v>
       </c>
       <c r="P7">
-        <v>0.1563475095063586</v>
+        <v>0.1111282914678999</v>
       </c>
       <c r="Q7">
-        <v>526.4904252044064</v>
+        <v>558.8227282022632</v>
       </c>
       <c r="R7">
-        <v>526.4904252044064</v>
+        <v>2235.290912809053</v>
       </c>
       <c r="S7">
-        <v>0.01851680969871255</v>
+        <v>0.01821546767993832</v>
       </c>
       <c r="T7">
-        <v>0.01851680969871255</v>
+        <v>0.009127717970541599</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H8">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I8">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J8">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.39808590523077</v>
+        <v>3.4088795</v>
       </c>
       <c r="N8">
-        <v>3.39808590523077</v>
+        <v>6.817759000000001</v>
       </c>
       <c r="O8">
-        <v>0.04699311904192303</v>
+        <v>0.04462917857418398</v>
       </c>
       <c r="P8">
-        <v>0.04699311904192303</v>
+        <v>0.03188023676415588</v>
       </c>
       <c r="Q8">
-        <v>39.60227608852412</v>
+        <v>42.03579874015384</v>
       </c>
       <c r="R8">
-        <v>39.60227608852412</v>
+        <v>252.214792440923</v>
       </c>
       <c r="S8">
-        <v>0.001392822689382003</v>
+        <v>0.001370205066309547</v>
       </c>
       <c r="T8">
-        <v>0.001392822689382003</v>
+        <v>0.001029908671040211</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H9">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I9">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J9">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>40.9570741144592</v>
+        <v>43.142411</v>
       </c>
       <c r="N9">
-        <v>40.9570741144592</v>
+        <v>129.427233</v>
       </c>
       <c r="O9">
-        <v>0.5664072990347006</v>
+        <v>0.5648220667934549</v>
       </c>
       <c r="P9">
-        <v>0.5664072990347006</v>
+        <v>0.6052092530360149</v>
       </c>
       <c r="Q9">
-        <v>477.3255891977827</v>
+        <v>532.0005315415224</v>
       </c>
       <c r="R9">
-        <v>477.3255891977827</v>
+        <v>4788.004783873701</v>
       </c>
       <c r="S9">
-        <v>0.01678766920798166</v>
+        <v>0.01734116742026485</v>
       </c>
       <c r="T9">
-        <v>0.01678766920798166</v>
+        <v>0.01955161945962621</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H10">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I10">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J10">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.21510460054611</v>
+        <v>5.580051</v>
       </c>
       <c r="N10">
-        <v>5.21510460054611</v>
+        <v>16.740153</v>
       </c>
       <c r="O10">
-        <v>0.07212119944710474</v>
+        <v>0.07305423747951603</v>
       </c>
       <c r="P10">
-        <v>0.07212119944710474</v>
+        <v>0.07827792697104638</v>
       </c>
       <c r="Q10">
-        <v>60.7783375645218</v>
+        <v>68.80909131454901</v>
       </c>
       <c r="R10">
-        <v>60.7783375645218</v>
+        <v>619.281821830941</v>
       </c>
       <c r="S10">
-        <v>0.00213759046054717</v>
+        <v>0.002242911241205696</v>
       </c>
       <c r="T10">
-        <v>0.00213759046054717</v>
+        <v>0.002528811700331415</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H11">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I11">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J11">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.16383383159679</v>
+        <v>8.215490333333333</v>
       </c>
       <c r="N11">
-        <v>8.16383383159679</v>
+        <v>24.646471</v>
       </c>
       <c r="O11">
-        <v>0.1129000342505034</v>
+        <v>0.1075575083134548</v>
       </c>
       <c r="P11">
-        <v>0.1129000342505034</v>
+        <v>0.1152483287955619</v>
       </c>
       <c r="Q11">
-        <v>95.14368098877522</v>
+        <v>101.3073938822652</v>
       </c>
       <c r="R11">
-        <v>95.14368098877522</v>
+        <v>911.766544940387</v>
       </c>
       <c r="S11">
-        <v>0.003346228821198743</v>
+        <v>0.003302230682237504</v>
       </c>
       <c r="T11">
-        <v>0.003346228821198743</v>
+        <v>0.003723160967326815</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H12">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I12">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J12">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.27065491007473</v>
+        <v>4.152783</v>
       </c>
       <c r="N12">
-        <v>3.27065491007473</v>
+        <v>12.458349</v>
       </c>
       <c r="O12">
-        <v>0.04523083871940958</v>
+        <v>0.05436839116396912</v>
       </c>
       <c r="P12">
-        <v>0.04523083871940958</v>
+        <v>0.05825596296532109</v>
       </c>
       <c r="Q12">
-        <v>38.11715840958712</v>
+        <v>51.209070429017</v>
       </c>
       <c r="R12">
-        <v>38.11715840958712</v>
+        <v>460.881633861153</v>
       </c>
       <c r="S12">
-        <v>0.001340590701629531</v>
+        <v>0.001669218376854964</v>
       </c>
       <c r="T12">
-        <v>0.001340590701629531</v>
+        <v>0.001881991085625811</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H13">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I13">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J13">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.3055332185448</v>
+        <v>11.8826895</v>
       </c>
       <c r="N13">
-        <v>11.3055332185448</v>
+        <v>23.765379</v>
       </c>
       <c r="O13">
-        <v>0.1563475095063586</v>
+        <v>0.1555686176754212</v>
       </c>
       <c r="P13">
-        <v>0.1563475095063586</v>
+        <v>0.1111282914678999</v>
       </c>
       <c r="Q13">
-        <v>131.7579544294617</v>
+        <v>146.5286010590105</v>
       </c>
       <c r="R13">
-        <v>131.7579544294617</v>
+        <v>879.171606354063</v>
       </c>
       <c r="S13">
-        <v>0.004633962654714511</v>
+        <v>0.004776267789542945</v>
       </c>
       <c r="T13">
-        <v>0.004633962654714511</v>
+        <v>0.003590060884031973</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H14">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I14">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J14">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.39808590523077</v>
+        <v>3.4088795</v>
       </c>
       <c r="N14">
-        <v>3.39808590523077</v>
+        <v>6.817759000000001</v>
       </c>
       <c r="O14">
-        <v>0.04699311904192303</v>
+        <v>0.04462917857418398</v>
       </c>
       <c r="P14">
-        <v>0.04699311904192303</v>
+        <v>0.03188023676415588</v>
       </c>
       <c r="Q14">
-        <v>423.8598491293922</v>
+        <v>439.9138905086813</v>
       </c>
       <c r="R14">
-        <v>423.8598491293922</v>
+        <v>2639.483343052088</v>
       </c>
       <c r="S14">
-        <v>0.01490726476593915</v>
+        <v>0.01433949775145233</v>
       </c>
       <c r="T14">
-        <v>0.01490726476593915</v>
+        <v>0.01077822103837266</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H15">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I15">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J15">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>40.9570741144592</v>
+        <v>43.142411</v>
       </c>
       <c r="N15">
-        <v>40.9570741144592</v>
+        <v>129.427233</v>
       </c>
       <c r="O15">
-        <v>0.5664072990347006</v>
+        <v>0.5648220667934549</v>
       </c>
       <c r="P15">
-        <v>0.5664072990347006</v>
+        <v>0.6052092530360149</v>
       </c>
       <c r="Q15">
-        <v>5108.775863556946</v>
+        <v>5567.502714289118</v>
       </c>
       <c r="R15">
-        <v>5108.775863556946</v>
+        <v>50107.52442860206</v>
       </c>
       <c r="S15">
-        <v>0.1796770196193648</v>
+        <v>0.1814791357473129</v>
       </c>
       <c r="T15">
-        <v>0.1796770196193648</v>
+        <v>0.2046120031023332</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H16">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I16">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J16">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.21510460054611</v>
+        <v>5.580051</v>
       </c>
       <c r="N16">
-        <v>5.21510460054611</v>
+        <v>16.740153</v>
       </c>
       <c r="O16">
-        <v>0.07212119944710474</v>
+        <v>0.07305423747951603</v>
       </c>
       <c r="P16">
-        <v>0.07212119944710474</v>
+        <v>0.07827792697104638</v>
       </c>
       <c r="Q16">
-        <v>650.5054642023114</v>
+        <v>720.102293039944</v>
       </c>
       <c r="R16">
-        <v>650.5054642023114</v>
+        <v>6480.920637359496</v>
       </c>
       <c r="S16">
-        <v>0.02287845193752644</v>
+        <v>0.02347256005015411</v>
       </c>
       <c r="T16">
-        <v>0.02287845193752644</v>
+        <v>0.02646457131297501</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H17">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I17">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J17">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.16383383159679</v>
+        <v>8.215490333333333</v>
       </c>
       <c r="N17">
-        <v>8.16383383159679</v>
+        <v>24.646471</v>
       </c>
       <c r="O17">
-        <v>0.1129000342505034</v>
+        <v>0.1075575083134548</v>
       </c>
       <c r="P17">
-        <v>0.1129000342505034</v>
+        <v>0.1152483287955619</v>
       </c>
       <c r="Q17">
-        <v>1018.314860978492</v>
+        <v>1060.204185854363</v>
       </c>
       <c r="R17">
-        <v>1018.314860978492</v>
+        <v>9541.837672689271</v>
       </c>
       <c r="S17">
-        <v>0.03581440723597008</v>
+        <v>0.0345585712730273</v>
       </c>
       <c r="T17">
-        <v>0.03581440723597008</v>
+        <v>0.03896369939944219</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H18">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I18">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J18">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.27065491007473</v>
+        <v>4.152783</v>
       </c>
       <c r="N18">
-        <v>3.27065491007473</v>
+        <v>12.458349</v>
       </c>
       <c r="O18">
-        <v>0.04523083871940958</v>
+        <v>0.05436839116396912</v>
       </c>
       <c r="P18">
-        <v>0.04523083871940958</v>
+        <v>0.05825596296532109</v>
       </c>
       <c r="Q18">
-        <v>407.9647588086609</v>
+        <v>535.914198776552</v>
       </c>
       <c r="R18">
-        <v>407.9647588086609</v>
+        <v>4823.227788988968</v>
       </c>
       <c r="S18">
-        <v>0.01434823016906389</v>
+        <v>0.01746873789195818</v>
       </c>
       <c r="T18">
-        <v>0.01434823016906389</v>
+        <v>0.01969545114387132</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H19">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I19">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J19">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.3055332185448</v>
+        <v>11.8826895</v>
       </c>
       <c r="N19">
-        <v>11.3055332185448</v>
+        <v>23.765379</v>
       </c>
       <c r="O19">
-        <v>0.1563475095063586</v>
+        <v>0.1555686176754212</v>
       </c>
       <c r="P19">
-        <v>0.1563475095063586</v>
+        <v>0.1111282914678999</v>
       </c>
       <c r="Q19">
-        <v>1410.194367647777</v>
+        <v>1533.454077109988</v>
       </c>
       <c r="R19">
-        <v>1410.194367647777</v>
+        <v>9200.724462659928</v>
       </c>
       <c r="S19">
-        <v>0.04959691476590909</v>
+        <v>0.04998469419833003</v>
       </c>
       <c r="T19">
-        <v>0.04959691476590909</v>
+        <v>0.03757077771782484</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H20">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I20">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J20">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.39808590523077</v>
+        <v>3.4088795</v>
       </c>
       <c r="N20">
-        <v>3.39808590523077</v>
+        <v>6.817759000000001</v>
       </c>
       <c r="O20">
-        <v>0.04699311904192303</v>
+        <v>0.04462917857418398</v>
       </c>
       <c r="P20">
-        <v>0.04699311904192303</v>
+        <v>0.03188023676415588</v>
       </c>
       <c r="Q20">
-        <v>538.7388086119652</v>
+        <v>540.7966919964462</v>
       </c>
       <c r="R20">
-        <v>538.7388086119652</v>
+        <v>3244.780151978677</v>
       </c>
       <c r="S20">
-        <v>0.01894758863374556</v>
+        <v>0.01762788835767136</v>
       </c>
       <c r="T20">
-        <v>0.01894758863374556</v>
+        <v>0.01324992551705618</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H21">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I21">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J21">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>40.9570741144592</v>
+        <v>43.142411</v>
       </c>
       <c r="N21">
-        <v>40.9570741144592</v>
+        <v>129.427233</v>
       </c>
       <c r="O21">
-        <v>0.5664072990347006</v>
+        <v>0.5648220667934549</v>
       </c>
       <c r="P21">
-        <v>0.5664072990347006</v>
+        <v>0.6052092530360149</v>
       </c>
       <c r="Q21">
-        <v>6493.410092631906</v>
+        <v>6844.264560701277</v>
       </c>
       <c r="R21">
-        <v>6493.410092631906</v>
+        <v>61598.38104631149</v>
       </c>
       <c r="S21">
-        <v>0.2283749774448094</v>
+        <v>0.2230966523131055</v>
       </c>
       <c r="T21">
-        <v>0.2283749774448094</v>
+        <v>0.2515344407346571</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H22">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I22">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J22">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.21510460054611</v>
+        <v>5.580051</v>
       </c>
       <c r="N22">
-        <v>5.21510460054611</v>
+        <v>16.740153</v>
       </c>
       <c r="O22">
-        <v>0.07212119944710474</v>
+        <v>0.07305423747951603</v>
       </c>
       <c r="P22">
-        <v>0.07212119944710474</v>
+        <v>0.07827792697104638</v>
       </c>
       <c r="Q22">
-        <v>826.8123048214069</v>
+        <v>885.239012400251</v>
       </c>
       <c r="R22">
-        <v>826.8123048214069</v>
+        <v>7967.151111602258</v>
       </c>
       <c r="S22">
-        <v>0.0290792108878104</v>
+        <v>0.02885538079539404</v>
       </c>
       <c r="T22">
-        <v>0.0290792108878104</v>
+        <v>0.03253353197056753</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H23">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I23">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J23">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.16383383159679</v>
+        <v>8.215490333333333</v>
       </c>
       <c r="N23">
-        <v>8.16383383159679</v>
+        <v>24.646471</v>
       </c>
       <c r="O23">
-        <v>0.1129000342505034</v>
+        <v>0.1075575083134548</v>
       </c>
       <c r="P23">
-        <v>0.1129000342505034</v>
+        <v>0.1152483287955619</v>
       </c>
       <c r="Q23">
-        <v>1294.309277281741</v>
+        <v>1303.334422761335</v>
       </c>
       <c r="R23">
-        <v>1294.309277281741</v>
+        <v>11730.00980485201</v>
       </c>
       <c r="S23">
-        <v>0.04552120500462919</v>
+        <v>0.04248368016514759</v>
       </c>
       <c r="T23">
-        <v>0.04552120500462919</v>
+        <v>0.04789900977847487</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H24">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I24">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J24">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.27065491007473</v>
+        <v>4.152783</v>
       </c>
       <c r="N24">
-        <v>3.27065491007473</v>
+        <v>12.458349</v>
       </c>
       <c r="O24">
-        <v>0.04523083871940958</v>
+        <v>0.05436839116396912</v>
       </c>
       <c r="P24">
-        <v>0.04523083871940958</v>
+        <v>0.05825596296532109</v>
       </c>
       <c r="Q24">
-        <v>518.5356635399338</v>
+        <v>658.8121724393829</v>
       </c>
       <c r="R24">
-        <v>518.5356635399338</v>
+        <v>5929.309551954447</v>
       </c>
       <c r="S24">
-        <v>0.01823703859388673</v>
+        <v>0.02147473828207642</v>
       </c>
       <c r="T24">
-        <v>0.01823703859388673</v>
+        <v>0.02421209026536305</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H25">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I25">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J25">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.3055332185448</v>
+        <v>11.8826895</v>
       </c>
       <c r="N25">
-        <v>11.3055332185448</v>
+        <v>23.765379</v>
       </c>
       <c r="O25">
-        <v>0.1563475095063586</v>
+        <v>0.1555686176754212</v>
       </c>
       <c r="P25">
-        <v>0.1563475095063586</v>
+        <v>0.1111282914678999</v>
       </c>
       <c r="Q25">
-        <v>1792.40009427254</v>
+        <v>1885.111859665589</v>
       </c>
       <c r="R25">
-        <v>1792.40009427254</v>
+        <v>11310.67115799354</v>
       </c>
       <c r="S25">
-        <v>0.06303919285277304</v>
+        <v>0.0614473828995345</v>
       </c>
       <c r="T25">
-        <v>0.06303919285277304</v>
+        <v>0.04618665776167961</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H26">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I26">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J26">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.39808590523077</v>
+        <v>3.4088795</v>
       </c>
       <c r="N26">
-        <v>3.39808590523077</v>
+        <v>6.817759000000001</v>
       </c>
       <c r="O26">
-        <v>0.04699311904192303</v>
+        <v>0.04462917857418398</v>
       </c>
       <c r="P26">
-        <v>0.04699311904192303</v>
+        <v>0.03188023676415588</v>
       </c>
       <c r="Q26">
-        <v>132.3064037491221</v>
+        <v>142.5262234256575</v>
       </c>
       <c r="R26">
-        <v>132.3064037491221</v>
+        <v>855.1573405539451</v>
       </c>
       <c r="S26">
-        <v>0.004653251764630608</v>
+        <v>0.004645805700683771</v>
       </c>
       <c r="T26">
-        <v>0.004653251764630608</v>
+        <v>0.00349199962308512</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H27">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I27">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J27">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>40.9570741144592</v>
+        <v>43.142411</v>
       </c>
       <c r="N27">
-        <v>40.9570741144592</v>
+        <v>129.427233</v>
       </c>
       <c r="O27">
-        <v>0.5664072990347006</v>
+        <v>0.5648220667934549</v>
       </c>
       <c r="P27">
-        <v>0.5664072990347006</v>
+        <v>0.6052092530360149</v>
       </c>
       <c r="Q27">
-        <v>1594.686931201156</v>
+        <v>1803.796499497135</v>
       </c>
       <c r="R27">
-        <v>1594.686931201156</v>
+        <v>16234.16849547422</v>
       </c>
       <c r="S27">
-        <v>0.056085567790927</v>
+        <v>0.05879681548292987</v>
       </c>
       <c r="T27">
-        <v>0.056085567790927</v>
+        <v>0.06629155545875851</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H28">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I28">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J28">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.21510460054611</v>
+        <v>5.580051</v>
       </c>
       <c r="N28">
-        <v>5.21510460054611</v>
+        <v>16.740153</v>
       </c>
       <c r="O28">
-        <v>0.07212119944710474</v>
+        <v>0.07305423747951603</v>
       </c>
       <c r="P28">
-        <v>0.07212119944710474</v>
+        <v>0.07827792697104638</v>
       </c>
       <c r="Q28">
-        <v>203.053058138299</v>
+        <v>233.303522624535</v>
       </c>
       <c r="R28">
-        <v>203.053058138299</v>
+        <v>2099.731703620815</v>
       </c>
       <c r="S28">
-        <v>0.007141430605938834</v>
+        <v>0.007604795870873751</v>
       </c>
       <c r="T28">
-        <v>0.007141430605938834</v>
+        <v>0.008574167547780323</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H29">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I29">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J29">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.16383383159679</v>
+        <v>8.215490333333333</v>
       </c>
       <c r="N29">
-        <v>8.16383383159679</v>
+        <v>24.646471</v>
       </c>
       <c r="O29">
-        <v>0.1129000342505034</v>
+        <v>0.1075575083134548</v>
       </c>
       <c r="P29">
-        <v>0.1129000342505034</v>
+        <v>0.1152483287955619</v>
       </c>
       <c r="Q29">
-        <v>317.8635046869524</v>
+        <v>343.4919922514117</v>
       </c>
       <c r="R29">
-        <v>317.8635046869524</v>
+        <v>3091.427930262705</v>
       </c>
       <c r="S29">
-        <v>0.01117934485545296</v>
+        <v>0.01119651540176542</v>
       </c>
       <c r="T29">
-        <v>0.01117934485545296</v>
+        <v>0.01262371806371835</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H30">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I30">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J30">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.27065491007473</v>
+        <v>4.152783</v>
       </c>
       <c r="N30">
-        <v>3.27065491007473</v>
+        <v>12.458349</v>
       </c>
       <c r="O30">
-        <v>0.04523083871940958</v>
+        <v>0.05436839116396912</v>
       </c>
       <c r="P30">
-        <v>0.04523083871940958</v>
+        <v>0.05825596296532109</v>
       </c>
       <c r="Q30">
-        <v>127.3448056125611</v>
+        <v>173.629040773155</v>
       </c>
       <c r="R30">
-        <v>127.3448056125611</v>
+        <v>1562.661366958395</v>
       </c>
       <c r="S30">
-        <v>0.004478751025209717</v>
+        <v>0.005659637700629386</v>
       </c>
       <c r="T30">
-        <v>0.004478751025209717</v>
+        <v>0.006381063046121589</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H31">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I31">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J31">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.3055332185448</v>
+        <v>11.8826895</v>
       </c>
       <c r="N31">
-        <v>11.3055332185448</v>
+        <v>23.765379</v>
       </c>
       <c r="O31">
-        <v>0.1563475095063586</v>
+        <v>0.1555686176754212</v>
       </c>
       <c r="P31">
-        <v>0.1563475095063586</v>
+        <v>0.1111282914678999</v>
       </c>
       <c r="Q31">
-        <v>440.1873538009683</v>
+        <v>496.8186345615075</v>
       </c>
       <c r="R31">
-        <v>440.1873538009683</v>
+        <v>2980.911807369045</v>
       </c>
       <c r="S31">
-        <v>0.01548150749170389</v>
+        <v>0.01619437314183596</v>
       </c>
       <c r="T31">
-        <v>0.01548150749170389</v>
+        <v>0.0121724300478317</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H32">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I32">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J32">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.39808590523077</v>
+        <v>3.4088795</v>
       </c>
       <c r="N32">
-        <v>3.39808590523077</v>
+        <v>6.817759000000001</v>
       </c>
       <c r="O32">
-        <v>0.04699311904192303</v>
+        <v>0.04462917857418398</v>
       </c>
       <c r="P32">
-        <v>0.04699311904192303</v>
+        <v>0.03188023676415588</v>
       </c>
       <c r="Q32">
-        <v>43.40664964391896</v>
+        <v>43.56861277026051</v>
       </c>
       <c r="R32">
-        <v>43.40664964391896</v>
+        <v>174.274451081042</v>
       </c>
       <c r="S32">
-        <v>0.001526623529389133</v>
+        <v>0.001420168897441802</v>
       </c>
       <c r="T32">
-        <v>0.001526623529389133</v>
+        <v>0.0007116425114168511</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H33">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I33">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J33">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>40.9570741144592</v>
+        <v>43.142411</v>
       </c>
       <c r="N33">
-        <v>40.9570741144592</v>
+        <v>129.427233</v>
       </c>
       <c r="O33">
-        <v>0.5664072990347006</v>
+        <v>0.5648220667934549</v>
       </c>
       <c r="P33">
-        <v>0.5664072990347006</v>
+        <v>0.6052092530360149</v>
       </c>
       <c r="Q33">
-        <v>523.179641747644</v>
+        <v>551.3996604557091</v>
       </c>
       <c r="R33">
-        <v>523.179641747644</v>
+        <v>3308.397962734254</v>
       </c>
       <c r="S33">
-        <v>0.01840036855507976</v>
+        <v>0.0179735042740147</v>
       </c>
       <c r="T33">
-        <v>0.01840036855507976</v>
+        <v>0.01350970621546669</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H34">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I34">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J34">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.21510460054611</v>
+        <v>5.580051</v>
       </c>
       <c r="N34">
-        <v>5.21510460054611</v>
+        <v>16.740153</v>
       </c>
       <c r="O34">
-        <v>0.07212119944710474</v>
+        <v>0.07305423747951603</v>
       </c>
       <c r="P34">
-        <v>0.07212119944710474</v>
+        <v>0.07827792697104638</v>
       </c>
       <c r="Q34">
-        <v>66.61697925406678</v>
+        <v>71.318179846869</v>
       </c>
       <c r="R34">
-        <v>66.61697925406678</v>
+        <v>427.909079081214</v>
       </c>
       <c r="S34">
-        <v>0.002342937057348622</v>
+        <v>0.002324697859322697</v>
       </c>
       <c r="T34">
-        <v>0.002342937057348622</v>
+        <v>0.001747349022225974</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H35">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I35">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J35">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>8.16383383159679</v>
+        <v>8.215490333333333</v>
       </c>
       <c r="N35">
-        <v>8.16383383159679</v>
+        <v>24.646471</v>
       </c>
       <c r="O35">
-        <v>0.1129000342505034</v>
+        <v>0.1075575083134548</v>
       </c>
       <c r="P35">
-        <v>0.1129000342505034</v>
+        <v>0.1152483287955619</v>
       </c>
       <c r="Q35">
-        <v>104.2836128226808</v>
+        <v>105.0015164956163</v>
       </c>
       <c r="R35">
-        <v>104.2836128226808</v>
+        <v>630.009098973698</v>
       </c>
       <c r="S35">
-        <v>0.003667682679285387</v>
+        <v>0.003422644845214911</v>
       </c>
       <c r="T35">
-        <v>0.003667682679285387</v>
+        <v>0.002572616092766345</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H36">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I36">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J36">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.27065491007473</v>
+        <v>4.152783</v>
       </c>
       <c r="N36">
-        <v>3.27065491007473</v>
+        <v>12.458349</v>
       </c>
       <c r="O36">
-        <v>0.04523083871940958</v>
+        <v>0.05436839116396912</v>
       </c>
       <c r="P36">
-        <v>0.04523083871940958</v>
+        <v>0.05825596296532109</v>
       </c>
       <c r="Q36">
-        <v>41.77886485130981</v>
+        <v>53.076383147577</v>
       </c>
       <c r="R36">
-        <v>41.77886485130981</v>
+        <v>318.458298885462</v>
       </c>
       <c r="S36">
-        <v>0.001469373900920582</v>
+        <v>0.001730085576338225</v>
       </c>
       <c r="T36">
-        <v>0.001469373900920582</v>
+        <v>0.001300411289173996</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H37">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I37">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J37">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>11.3055332185448</v>
+        <v>11.8826895</v>
       </c>
       <c r="N37">
-        <v>11.3055332185448</v>
+        <v>23.765379</v>
       </c>
       <c r="O37">
-        <v>0.1563475095063586</v>
+        <v>0.1555686176754212</v>
       </c>
       <c r="P37">
-        <v>0.1563475095063586</v>
+        <v>0.1111282914678999</v>
       </c>
       <c r="Q37">
-        <v>144.4152187852752</v>
+        <v>151.8716920016505</v>
       </c>
       <c r="R37">
-        <v>144.4152187852752</v>
+        <v>607.486768006602</v>
       </c>
       <c r="S37">
-        <v>0.005079122042545549</v>
+        <v>0.004950431966239429</v>
       </c>
       <c r="T37">
-        <v>0.005079122042545549</v>
+        <v>0.002480647085990175</v>
       </c>
     </row>
   </sheetData>
